--- a/Kimberlites/Depleted-Kimberlites-Compilation.xlsx
+++ b/Kimberlites/Depleted-Kimberlites-Compilation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omer/Documents/GitHub/The-Diamond-Route/Kimberlites/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04233A34-062D-FA49-9167-5A5EC3AD0682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED3B3E3-6A8F-194D-B231-927CF8D4F6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="4300" windowWidth="27240" windowHeight="16440" xr2:uid="{409B2727-A893-3241-9149-A1E6CF2935B9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20280" xr2:uid="{409B2727-A893-3241-9149-A1E6CF2935B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,316 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Rocktype</t>
+  </si>
+  <si>
+    <t>Dating Method</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Rock Type</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Perovskite</t>
+  </si>
+  <si>
+    <t>U-Th-Pb</t>
+  </si>
+  <si>
+    <t>Amayersuk</t>
+  </si>
+  <si>
+    <t>Somerset</t>
+  </si>
+  <si>
+    <t>Amayersuk-1</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Kimberlite</t>
+  </si>
+  <si>
+    <t>North America central corridor</t>
+  </si>
+  <si>
+    <t>BAT-1</t>
+  </si>
+  <si>
+    <t>Batty Bay</t>
+  </si>
+  <si>
+    <t>Batty-01</t>
+  </si>
+  <si>
+    <t>Rb-Sr</t>
+  </si>
+  <si>
+    <t>ELB-1</t>
+  </si>
+  <si>
+    <t>Elwin Bay</t>
+  </si>
+  <si>
+    <t>Elwin</t>
+  </si>
+  <si>
+    <t>K-Ar</t>
+  </si>
+  <si>
+    <t>JOS-1</t>
+  </si>
+  <si>
+    <t>Jos</t>
+  </si>
+  <si>
+    <t>Jos_Dyke</t>
+  </si>
+  <si>
+    <t>References:</t>
+  </si>
+  <si>
+    <t>X51 pvk</t>
+  </si>
+  <si>
+    <t>X051</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tanzania Cretaceous-Eocene</t>
+  </si>
+  <si>
+    <t>X073</t>
+  </si>
+  <si>
+    <t>X073 pvk</t>
+  </si>
+  <si>
+    <t>De Beers</t>
+  </si>
+  <si>
+    <t>Kimberley</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>South Africa Cretaceous</t>
+  </si>
+  <si>
+    <t>Phologobite</t>
+  </si>
+  <si>
+    <t>Phologobite/Biotite</t>
+  </si>
+  <si>
+    <t>COL6</t>
+  </si>
+  <si>
+    <t>Mbuji Mayi</t>
+  </si>
+  <si>
+    <t>Nod 1</t>
+  </si>
+  <si>
+    <t>Mbujimayi-01</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Zircon</t>
+  </si>
+  <si>
+    <t>Ar-Ar</t>
+  </si>
+  <si>
+    <t>Congo-Zaire</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Attawapiskat (Ontario)</t>
+  </si>
+  <si>
+    <t>Tandem</t>
+  </si>
+  <si>
+    <t>Kirkland Lake (Ontario)</t>
+  </si>
+  <si>
+    <t>Tandem-01</t>
+  </si>
+  <si>
+    <t>CH-39</t>
+  </si>
+  <si>
+    <t>Chidliak Province</t>
+  </si>
+  <si>
+    <t>Chidliak</t>
+  </si>
+  <si>
+    <t>OL-R-52</t>
+  </si>
+  <si>
+    <t>Ruslovaya</t>
+  </si>
+  <si>
+    <t>Siberia, Russia</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Siberia Jurassic</t>
+  </si>
+  <si>
+    <t>Chidliak Canada</t>
+  </si>
+  <si>
+    <t>Great Meteor Canada</t>
+  </si>
+  <si>
+    <t>Tikiusaaq</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Tikiusaaq-488520</t>
+  </si>
+  <si>
+    <t>West Greenland Jurassic</t>
+  </si>
+  <si>
+    <t>Jericho</t>
+  </si>
+  <si>
+    <t>MON-1</t>
+  </si>
+  <si>
+    <t>Monastery</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>Bultfontein</t>
+  </si>
+  <si>
+    <t>Bultfontein-01</t>
+  </si>
+  <si>
+    <t>JJG4326</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>LQ-7</t>
+  </si>
+  <si>
+    <t>Liqhobong</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>JAG K9</t>
+  </si>
+  <si>
+    <t>Jagersfontein</t>
+  </si>
+  <si>
+    <t>HEB-1A</t>
+  </si>
+  <si>
+    <t>Hebron</t>
+  </si>
+  <si>
+    <t>Prieska</t>
+  </si>
+  <si>
+    <t>Hebron_Gr</t>
+  </si>
+  <si>
+    <t>Otk</t>
+  </si>
+  <si>
+    <t>Otkritaya</t>
+  </si>
+  <si>
+    <t>Otkrytaya</t>
+  </si>
+  <si>
+    <t>KAA-1</t>
+  </si>
+  <si>
+    <t>Kaalvallei</t>
+  </si>
+  <si>
+    <t>Kaalvallei_Gr</t>
+  </si>
+  <si>
+    <t>JJG-4282</t>
+  </si>
+  <si>
+    <t>Goedehoop</t>
+  </si>
+  <si>
+    <t>Hanover-Philipstown</t>
+  </si>
+  <si>
+    <t>Wess 423</t>
+  </si>
+  <si>
+    <t>Wesselton</t>
+  </si>
   <si>
     <r>
       <t xml:space="preserve">Columns titled in </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>red</t>
+      <t>green</t>
     </r>
     <r>
       <rPr>
@@ -61,8 +359,9 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>Giuliani et al. (2021)</t>
@@ -79,6 +378,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color theme="4"/>
         <rFont val="Calibri (Body)"/>
@@ -97,6 +397,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color theme="4"/>
         <rFont val="Calibri (Body)"/>
@@ -115,310 +416,50 @@
     </r>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Locality</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Rocktype</t>
-  </si>
-  <si>
-    <t>Dating Method</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Rock Type</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Perovskite</t>
-  </si>
-  <si>
-    <t>U-Th-Pb</t>
-  </si>
-  <si>
-    <t>Amayersuk</t>
-  </si>
-  <si>
-    <t>Somerset</t>
-  </si>
-  <si>
-    <t>Amayersuk-1</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Kimberlite</t>
-  </si>
-  <si>
-    <t>North America central corridor</t>
-  </si>
-  <si>
-    <t>BAT-1</t>
-  </si>
-  <si>
-    <t>Batty Bay</t>
-  </si>
-  <si>
-    <t>Batty-01</t>
-  </si>
-  <si>
-    <t>Rb-Sr</t>
-  </si>
-  <si>
-    <t>ELB-1</t>
-  </si>
-  <si>
-    <t>Elwin Bay</t>
-  </si>
-  <si>
-    <t>Elwin</t>
-  </si>
-  <si>
-    <t>K-Ar</t>
-  </si>
-  <si>
-    <t>JOS-1</t>
-  </si>
-  <si>
-    <t>Jos</t>
-  </si>
-  <si>
-    <t>Jos_Dyke</t>
-  </si>
-  <si>
-    <t>References:</t>
-  </si>
-  <si>
-    <t>Tappe, S., Smart, K., Torsvik, T., Massuyeau, M. &amp; de Wit, M. Geodynamics of kimberlites on a cooling Earth: Clues to plate tectonic evolution and deep volatile cycles. Earth Planet. Sci. Lett. 484, 1–14 (2018)</t>
-  </si>
-  <si>
-    <t>Giuliani, A., Jackson, M. G., Fitzpayne, A. &amp; Dalton, H. Remnants of early Earth differentiation in the deepest mantle-derived lavas. Proc. Natl. Acad. Sci. 118, e2015211118 (2021).</t>
-  </si>
-  <si>
-    <t>X51 pvk</t>
-  </si>
-  <si>
-    <t>X051</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tanzania Cretaceous-Eocene</t>
-  </si>
-  <si>
-    <t>X073</t>
-  </si>
-  <si>
-    <t>X073 pvk</t>
-  </si>
-  <si>
-    <t>De Beers</t>
-  </si>
-  <si>
-    <t>Kimberley</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>South Africa Cretaceous</t>
-  </si>
-  <si>
-    <t>Phologobite</t>
-  </si>
-  <si>
-    <t>Phologobite/Biotite</t>
-  </si>
-  <si>
-    <t>COL6</t>
-  </si>
-  <si>
-    <t>Mbuji Mayi</t>
-  </si>
-  <si>
-    <t>Nod 1</t>
-  </si>
-  <si>
-    <t>Mbujimayi-01</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Zircon</t>
-  </si>
-  <si>
-    <t>Ar-Ar</t>
-  </si>
-  <si>
-    <t>Congo-Zaire</t>
-  </si>
-  <si>
-    <t>Bravo</t>
-  </si>
-  <si>
-    <t>Attawapiskat (Ontario)</t>
-  </si>
-  <si>
-    <t>Compiled by Ömer F. Bodur on Sunday 21 Aug 2022 in NSW State Library, Sydney, NSW, Australia</t>
-  </si>
-  <si>
-    <t>Tandem</t>
-  </si>
-  <si>
-    <t>Kirkland Lake (Ontario)</t>
-  </si>
-  <si>
-    <t>Tandem-01</t>
-  </si>
-  <si>
-    <t>CH-39</t>
-  </si>
-  <si>
-    <t>Chidliak Province</t>
-  </si>
-  <si>
-    <t>Chidliak</t>
-  </si>
-  <si>
-    <t>OL-R-52</t>
-  </si>
-  <si>
-    <t>Ruslovaya</t>
-  </si>
-  <si>
-    <t>Siberia, Russia</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Siberia Jurassic</t>
-  </si>
-  <si>
-    <t>Chidliak Canada</t>
-  </si>
-  <si>
-    <t>Great Meteor Canada</t>
-  </si>
-  <si>
-    <t>Tikiusaaq</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Tikiusaaq-488520</t>
-  </si>
-  <si>
-    <t>West Greenland Jurassic</t>
-  </si>
-  <si>
-    <t>Jericho</t>
-  </si>
-  <si>
-    <t>MON-1</t>
-  </si>
-  <si>
-    <t>Monastery</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>Bultfontein</t>
-  </si>
-  <si>
-    <t>Bultfontein-01</t>
-  </si>
-  <si>
-    <t>JJG4326</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>LQ-7</t>
-  </si>
-  <si>
-    <t>Liqhobong</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>JAG K9</t>
-  </si>
-  <si>
-    <t>Jagersfontein</t>
-  </si>
-  <si>
-    <t>HEB-1A</t>
-  </si>
-  <si>
-    <t>Hebron</t>
-  </si>
-  <si>
-    <t>Prieska</t>
-  </si>
-  <si>
-    <t>Hebron_Gr</t>
-  </si>
-  <si>
-    <t>Otk</t>
-  </si>
-  <si>
-    <t>Otkritaya</t>
-  </si>
-  <si>
-    <t>Otkrytaya</t>
-  </si>
-  <si>
-    <t>KAA-1</t>
-  </si>
-  <si>
-    <t>Kaalvallei</t>
-  </si>
-  <si>
-    <t>Kaalvallei_Gr</t>
-  </si>
-  <si>
-    <t>JJG-4282</t>
-  </si>
-  <si>
-    <t>Goedehoop</t>
-  </si>
-  <si>
-    <t>Hanover-Philipstown</t>
-  </si>
-  <si>
-    <t>Wess 423</t>
-  </si>
-  <si>
-    <t>Wesselton</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tappe, S., Smart, K., Torsvik, T., Massuyeau, M. &amp; de Wit, M. Geodynamics of kimberlites on a cooling Earth: Clues to plate tectonic evolution and deep volatile cycles. Earth Planet. Sci. Lett. 484, 1–14 (2018)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giuliani, A., Jackson, M. G., Fitzpayne, A. &amp; Dalton, H. Remnants of early Earth differentiation in the deepest mantle-derived lavas. Proc. Natl. Acad. Sci. 118, e2015211118 (2021).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -430,17 +471,10 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -453,16 +487,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="4"/>
-      <name val="Calibri (Body)"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="4"/>
       <name val="Calibri"/>
@@ -470,11 +518,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -497,26 +550,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,13 +894,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA30A18-636A-1442-92F7-83C6EC6875D5}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
@@ -851,111 +912,108 @@
     <col min="13" max="13" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-4.0922000000000001</v>
+      </c>
+      <c r="G3" s="6">
+        <v>33.546799999999998</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="12">
-        <v>-4.0922000000000001</v>
-      </c>
-      <c r="G3" s="12">
-        <v>33.546799999999998</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="J3" s="4">
         <v>51</v>
       </c>
       <c r="K3">
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="13">
+        <v>33</v>
+      </c>
+      <c r="F4" s="7">
         <v>-4.0650000000000004</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="7">
         <v>33.424399999999999</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="J4">
         <v>47.25</v>
@@ -964,162 +1022,162 @@
         <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-28.738900000000001</v>
+      </c>
+      <c r="G5" s="6">
+        <v>24.776399999999999</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="12">
-        <v>-28.738900000000001</v>
-      </c>
-      <c r="G5" s="12">
-        <v>24.776399999999999</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4">
         <v>88</v>
       </c>
       <c r="K5">
         <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="12">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6">
         <v>-28.740600000000001</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>24.752500000000001</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4">
         <v>87</v>
       </c>
       <c r="K6">
         <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-6.1670999999999996</v>
+      </c>
+      <c r="G7" s="6">
+        <v>23.607600000000001</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="I7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="12">
-        <v>-6.1670999999999996</v>
-      </c>
-      <c r="G7" s="12">
-        <v>23.607600000000001</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="J7" s="4">
         <v>71</v>
       </c>
       <c r="K7">
         <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>73.349999999999994</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="7">
         <v>-91.972999999999999</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="J8">
         <v>99</v>
@@ -1128,823 +1186,832 @@
         <v>98</v>
       </c>
       <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
         <v>18</v>
-      </c>
-      <c r="M8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="12">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6">
         <v>73.341768000000002</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="6">
         <v>-92.017356000000007</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="J9" s="4">
         <v>99</v>
       </c>
       <c r="K9">
         <v>98</v>
       </c>
       <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
         <v>18</v>
       </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="12">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6">
         <v>73.511816999999994</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="6">
         <v>-90.992750000000001</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="J10" s="4">
         <v>99</v>
       </c>
       <c r="K10">
         <v>97.5</v>
       </c>
       <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
         <v>18</v>
       </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="12">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6">
         <v>73.326390000000004</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="6">
         <v>-92.984380000000002</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="J11" s="4">
         <v>98</v>
       </c>
       <c r="K11">
         <v>97.4</v>
       </c>
       <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
         <v>18</v>
       </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>55</v>
+      <c r="A12" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="12">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6">
         <v>52.864978000000001</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="6">
         <v>-83.939490000000006</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="J12" s="4">
         <v>175.7</v>
       </c>
       <c r="K12">
         <v>177.4</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>58</v>
+      <c r="A13" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="12">
+        <v>16</v>
+      </c>
+      <c r="F13" s="6">
         <v>59.362000000000002</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="6">
         <v>-65.107732999999996</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="J13" s="4">
         <v>164.7</v>
       </c>
       <c r="K13">
         <v>164.6</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>61</v>
+      <c r="A14" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="12">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6">
         <v>64.237283289999993</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="6">
         <v>-66.24803326</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="J14" s="4">
         <v>152.80000000000001</v>
       </c>
       <c r="K14">
         <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>64</v>
+      <c r="A15" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="12">
+        <v>63</v>
+      </c>
+      <c r="F15" s="6">
         <v>70.526700000000005</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="6">
         <v>120.5702</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="H15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="4">
         <v>160</v>
       </c>
       <c r="K15">
         <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>488520</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>488520</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>73</v>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="12">
+        <v>68</v>
+      </c>
+      <c r="F16" s="6">
         <v>64.105810000000005</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="6">
         <v>-49.873807999999997</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="J16" s="4">
         <v>159.6</v>
       </c>
       <c r="K16">
         <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>75</v>
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="12">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6">
         <v>65.995845000000003</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="6">
         <v>-111.47868200000001</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="H17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="4">
         <v>172</v>
       </c>
       <c r="K17">
         <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>76</v>
+      <c r="A18" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="12">
+        <v>39</v>
+      </c>
+      <c r="F18" s="6">
         <v>-28.111000000000001</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="6">
         <v>27.422000000000001</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="H18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="4">
         <v>90</v>
       </c>
       <c r="K18">
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>78</v>
+      <c r="A19" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="12">
+        <v>39</v>
+      </c>
+      <c r="F19" s="6">
         <v>-28.769300000000001</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="6">
         <v>24.791599999999999</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="H19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="4">
         <v>84</v>
       </c>
       <c r="K19">
         <v>84</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="12">
+        <v>39</v>
+      </c>
+      <c r="F20" s="6">
         <v>-28.370799999999999</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="6">
         <v>24.652799999999999</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="J20" s="4">
         <v>93.2</v>
       </c>
       <c r="K20">
         <v>93</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>83</v>
+      <c r="A21" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="12">
+        <v>81</v>
+      </c>
+      <c r="F21" s="6">
         <v>-28.984999999999999</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="6">
         <v>28.622</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="10">
+      <c r="J21" s="4">
         <v>91.2</v>
       </c>
       <c r="K21">
         <v>91</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>86</v>
+      <c r="A22" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="12">
+        <v>39</v>
+      </c>
+      <c r="F22" s="6">
         <v>-29.7623</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="6">
         <v>25.419</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="10">
+      <c r="H22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="4">
         <v>86</v>
       </c>
       <c r="K22">
         <v>86</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>88</v>
+      <c r="A23" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="12">
+        <v>39</v>
+      </c>
+      <c r="F23" s="6">
         <v>-31.265000000000001</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="6">
         <v>22.56</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="10">
+      <c r="J23" s="4">
         <v>76.400000000000006</v>
       </c>
       <c r="K23">
         <v>76</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>92</v>
+      <c r="A24" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="12">
+        <v>63</v>
+      </c>
+      <c r="F24" s="6">
         <v>70.511399999999995</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="6">
         <v>121.11579999999999</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="10">
+      <c r="J24" s="4">
         <v>160</v>
       </c>
       <c r="K24">
         <v>161</v>
       </c>
       <c r="L24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>95</v>
+      <c r="A25" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="12">
+        <v>39</v>
+      </c>
+      <c r="F25" s="6">
         <v>-28.035440000000001</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <v>26.828810000000001</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="10">
+      <c r="J25" s="4">
         <v>99.7</v>
       </c>
       <c r="K25">
         <v>100</v>
       </c>
       <c r="L25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>98</v>
+      <c r="A26" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="12">
+        <v>39</v>
+      </c>
+      <c r="F26" s="6">
         <v>-30.82807</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="6">
         <v>24.41236</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="J26" s="4">
         <v>81.5</v>
       </c>
       <c r="K26">
         <v>82</v>
       </c>
       <c r="L26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>101</v>
+      <c r="A27" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>102</v>
+        <v>38</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="12">
+        <v>39</v>
+      </c>
+      <c r="F27" s="6">
         <v>-28.7697</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="6">
         <v>24.829799999999999</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="10">
+      <c r="J27" s="4">
         <v>89</v>
       </c>
       <c r="K27">
         <v>89</v>
       </c>
       <c r="L27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="10"/>
+      <c r="A28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="10"/>
+      <c r="A29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="8"/>
+      <c r="A30" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="10"/>
+      <c r="A31" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>